--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Google ドライブ\10_学生共有\10_各グループ用\33_矢吹C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="16">
   <si>
     <t>泉　雄太</t>
     <rPh sb="0" eb="1">
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1649,6 +1649,727 @@
         <v>12</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42161</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42162</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42163</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42164</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42165</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42167</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>42168</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>42169</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42171</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42172</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42173</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42174</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>42175</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>42176</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>42177</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>42178</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>42179</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>42180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>42181</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>42182</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>42183</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>42184</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>42187</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>42188</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>42189</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>42190</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>42191</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>42192</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>42193</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>42194</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>42195</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>42196</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>42197</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>42198</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>42199</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42201</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42203</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>42204</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>42205</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>42206</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>42207</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>42208</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Google ドライブ\10_学生共有\10_各グループ用\33_矢吹C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimada\Documents\GitHub\PMyabukikenC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="16">
   <si>
     <t>泉　雄太</t>
     <rPh sb="0" eb="1">
@@ -157,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,13 +180,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +212,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G48" si="1">SUM(C7:F7)</f>
+        <f t="shared" ref="G7:G70" si="1">SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1649,9 +1663,598 @@
         <v>12</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>42161</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>42162</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>42163</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>42164</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>42165</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>42166</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>42167</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>42168</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>42169</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>42170</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>42171</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>42172</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>42173</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>42174</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>42175</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>42176</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>42177</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>42178</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>42179</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>42180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>42181</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>42182</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>42183</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" ref="G71:G97" si="2">SUM(C71:F71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>42184</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>42185</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>42187</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>42188</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>42189</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>42190</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>42191</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>42192</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>42193</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>42194</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>42195</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>42196</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>42197</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>42198</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>42199</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>42201</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>42202</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>42203</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>42204</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>42205</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>42206</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>42207</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>42208</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>42209</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimada\Documents\GitHub\PMyabukikenC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,24 +180,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -212,9 +201,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -675,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:G70" si="1">SUM(C7:F7)</f>
+        <f t="shared" ref="G7:G48" si="1">SUM(C7:F7)</f>
         <v>0</v>
       </c>
     </row>
@@ -1670,9 +1656,19 @@
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
       <c r="G49" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,8 +1679,19 @@
       <c r="B50" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
       <c r="G50" s="1">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1695,10 +1702,13 @@
       <c r="B51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
@@ -1707,10 +1717,13 @@
       <c r="B52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
@@ -1719,10 +1732,13 @@
       <c r="B53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
@@ -1731,10 +1747,13 @@
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
@@ -1743,10 +1762,13 @@
       <c r="B55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
@@ -1755,10 +1777,13 @@
       <c r="B56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G56" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
@@ -1767,10 +1792,13 @@
       <c r="B57" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -1779,10 +1807,13 @@
       <c r="B58" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
@@ -1791,10 +1822,13 @@
       <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -1803,10 +1837,13 @@
       <c r="B60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
@@ -1815,10 +1852,13 @@
       <c r="B61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
@@ -1827,10 +1867,13 @@
       <c r="B62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
@@ -1839,10 +1882,13 @@
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
@@ -1851,10 +1897,13 @@
       <c r="B64" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
@@ -1863,10 +1912,13 @@
       <c r="B65" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
@@ -1875,10 +1927,13 @@
       <c r="B66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
@@ -1887,10 +1942,13 @@
       <c r="B67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
@@ -1899,10 +1957,13 @@
       <c r="B68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
@@ -1911,10 +1972,13 @@
       <c r="B69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
@@ -1923,10 +1987,13 @@
       <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
@@ -1935,10 +2002,13 @@
       <c r="B71" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G71" s="1">
-        <f t="shared" ref="G71:G97" si="2">SUM(C71:F71)</f>
-        <v>0</v>
-      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
@@ -1947,10 +2017,13 @@
       <c r="B72" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
@@ -1959,10 +2032,13 @@
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
@@ -1971,10 +2047,13 @@
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
@@ -1983,10 +2062,13 @@
       <c r="B75" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G75" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
@@ -1995,10 +2077,13 @@
       <c r="B76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
@@ -2007,10 +2092,13 @@
       <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -2019,10 +2107,13 @@
       <c r="B78" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
@@ -2031,10 +2122,13 @@
       <c r="B79" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C79" s="1">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
@@ -2043,10 +2137,13 @@
       <c r="B80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C80" s="1">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
@@ -2055,10 +2152,13 @@
       <c r="B81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
@@ -2067,10 +2167,13 @@
       <c r="B82" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
@@ -2079,10 +2182,11 @@
       <c r="B83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
@@ -2091,10 +2195,11 @@
       <c r="B84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
@@ -2103,10 +2208,11 @@
       <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
@@ -2115,10 +2221,11 @@
       <c r="B86" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
@@ -2127,10 +2234,11 @@
       <c r="B87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
@@ -2139,10 +2247,11 @@
       <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
@@ -2151,10 +2260,11 @@
       <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G89" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
@@ -2163,10 +2273,11 @@
       <c r="B90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
@@ -2175,10 +2286,11 @@
       <c r="B91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
@@ -2187,10 +2299,11 @@
       <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G92" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
@@ -2199,10 +2312,11 @@
       <c r="B93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
@@ -2211,10 +2325,11 @@
       <c r="B94" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
@@ -2223,10 +2338,11 @@
       <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
@@ -2235,10 +2351,11 @@
       <c r="B96" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
@@ -2247,14 +2364,15 @@
       <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\izumi\Documents\GitHub\PMyabukikenC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1706,7 +1706,9 @@
         <v>0</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
@@ -1721,7 +1723,9 @@
         <v>0</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
@@ -1736,7 +1740,9 @@
         <v>1</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
@@ -1751,7 +1757,9 @@
         <v>1</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
@@ -1766,7 +1774,9 @@
         <v>3</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
@@ -1781,7 +1791,9 @@
         <v>0</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
@@ -1796,7 +1808,9 @@
         <v>0</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
@@ -1811,7 +1825,9 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
@@ -1826,7 +1842,9 @@
         <v>2</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
@@ -1841,7 +1859,9 @@
         <v>0</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
@@ -1856,7 +1876,9 @@
         <v>3</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="1">
+        <v>6</v>
+      </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
@@ -1871,7 +1893,9 @@
         <v>4</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="1">
+        <v>6</v>
+      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
@@ -1886,7 +1910,9 @@
         <v>0</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
@@ -1901,7 +1927,9 @@
         <v>0</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
@@ -1916,7 +1944,9 @@
         <v>2</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
@@ -1931,7 +1961,9 @@
         <v>1</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
@@ -1946,7 +1978,9 @@
         <v>2</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
@@ -1961,7 +1995,9 @@
         <v>1</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="1">
+        <v>6</v>
+      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
@@ -1976,7 +2012,9 @@
         <v>5</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>6</v>
+      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
@@ -1991,7 +2029,9 @@
         <v>0</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
@@ -2006,7 +2046,9 @@
         <v>0</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
@@ -2021,7 +2063,9 @@
         <v>2</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
@@ -2036,7 +2080,9 @@
         <v>2</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
@@ -2051,7 +2097,9 @@
         <v>1</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="1">
+        <v>3</v>
+      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
@@ -2066,7 +2114,9 @@
         <v>3</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="1">
+        <v>6</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
@@ -2081,7 +2131,9 @@
         <v>3</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="1">
+        <v>6</v>
+      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
@@ -2096,7 +2148,9 @@
         <v>0</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
@@ -2111,7 +2165,9 @@
         <v>0</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
@@ -2126,7 +2182,9 @@
         <v>4</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
@@ -2141,7 +2199,9 @@
         <v>4</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
@@ -2156,7 +2216,9 @@
         <v>2</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="1">
+        <v>3</v>
+      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
@@ -2171,7 +2233,9 @@
         <v>3</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="1">
+        <v>6</v>
+      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
@@ -2184,7 +2248,9 @@
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="1">
+        <v>6</v>
+      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>

--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harukawa\Documents\GitHub\PMyabukikenC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shimada\Documents\GitHub\PMyabukikenC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,7 +1709,9 @@
       <c r="E51" s="1">
         <v>1</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -1726,7 +1728,9 @@
       <c r="E52" s="1">
         <v>1</v>
       </c>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -1743,7 +1747,9 @@
       <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -1760,7 +1766,9 @@
       <c r="E54" s="1">
         <v>6</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -1777,7 +1785,9 @@
       <c r="E55" s="1">
         <v>6</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -1794,7 +1804,9 @@
       <c r="E56" s="1">
         <v>0</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -1811,7 +1823,9 @@
       <c r="E57" s="1">
         <v>0</v>
       </c>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -1828,7 +1842,9 @@
       <c r="E58" s="1">
         <v>1</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -1845,7 +1861,9 @@
       <c r="E59" s="1">
         <v>1</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -1862,7 +1880,9 @@
       <c r="E60" s="1">
         <v>3</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -1879,7 +1899,9 @@
       <c r="E61" s="1">
         <v>6</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="1">
+        <v>3</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -1896,7 +1918,9 @@
       <c r="E62" s="1">
         <v>6</v>
       </c>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -1913,7 +1937,9 @@
       <c r="E63" s="1">
         <v>0</v>
       </c>
-      <c r="F63" s="1"/>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -1930,7 +1956,9 @@
       <c r="E64" s="1">
         <v>0</v>
       </c>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -1947,7 +1975,9 @@
       <c r="E65" s="1">
         <v>1</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -1964,7 +1994,9 @@
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -1981,7 +2013,9 @@
       <c r="E67" s="1">
         <v>3</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -1998,7 +2032,9 @@
       <c r="E68" s="1">
         <v>6</v>
       </c>
-      <c r="F68" s="1"/>
+      <c r="F68" s="1">
+        <v>3</v>
+      </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2015,7 +2051,9 @@
       <c r="E69" s="1">
         <v>6</v>
       </c>
-      <c r="F69" s="1"/>
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2032,7 +2070,9 @@
       <c r="E70" s="1">
         <v>0</v>
       </c>
-      <c r="F70" s="1"/>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2049,7 +2089,9 @@
       <c r="E71" s="1">
         <v>0</v>
       </c>
-      <c r="F71" s="1"/>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -2066,7 +2108,9 @@
       <c r="E72" s="1">
         <v>1</v>
       </c>
-      <c r="F72" s="1"/>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -2083,7 +2127,9 @@
       <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="F73" s="1"/>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -2100,7 +2146,9 @@
       <c r="E74" s="1">
         <v>3</v>
       </c>
-      <c r="F74" s="1"/>
+      <c r="F74" s="1">
+        <v>2</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -2117,7 +2165,9 @@
       <c r="E75" s="1">
         <v>6</v>
       </c>
-      <c r="F75" s="1"/>
+      <c r="F75" s="1">
+        <v>3</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -2134,7 +2184,9 @@
       <c r="E76" s="1">
         <v>6</v>
       </c>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1">
+        <v>4</v>
+      </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -2151,7 +2203,9 @@
       <c r="E77" s="1">
         <v>0</v>
       </c>
-      <c r="F77" s="1"/>
+      <c r="F77" s="1">
+        <v>0</v>
+      </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -2168,7 +2222,9 @@
       <c r="E78" s="1">
         <v>0</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="F78" s="1">
+        <v>0</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -2185,7 +2241,9 @@
       <c r="E79" s="1">
         <v>1</v>
       </c>
-      <c r="F79" s="1"/>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -2202,7 +2260,9 @@
       <c r="E80" s="1">
         <v>1</v>
       </c>
-      <c r="F80" s="1"/>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -2219,7 +2279,9 @@
       <c r="E81" s="1">
         <v>3</v>
       </c>
-      <c r="F81" s="1"/>
+      <c r="F81" s="1">
+        <v>3</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -2236,7 +2298,9 @@
       <c r="E82" s="1">
         <v>6</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -2251,7 +2315,9 @@
       <c r="E83" s="1">
         <v>6</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="1">
+        <v>4</v>
+      </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -2439,6 +2505,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/作業報告書.xlsx
+++ b/作業報告書.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1705,7 +1705,9 @@
       <c r="C51" s="1">
         <v>0</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
       <c r="E51" s="1">
         <v>1</v>
       </c>
@@ -1724,7 +1726,9 @@
       <c r="C52" s="1">
         <v>0</v>
       </c>
-      <c r="D52" s="1"/>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
@@ -1743,7 +1747,9 @@
       <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="1"/>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
       <c r="E53" s="1">
         <v>3</v>
       </c>
@@ -1762,7 +1768,9 @@
       <c r="C54" s="1">
         <v>1</v>
       </c>
-      <c r="D54" s="1"/>
+      <c r="D54" s="1">
+        <v>5</v>
+      </c>
       <c r="E54" s="1">
         <v>6</v>
       </c>
@@ -1781,7 +1789,9 @@
       <c r="C55" s="1">
         <v>3</v>
       </c>
-      <c r="D55" s="1"/>
+      <c r="D55" s="1">
+        <v>4</v>
+      </c>
       <c r="E55" s="1">
         <v>6</v>
       </c>
@@ -1800,7 +1810,9 @@
       <c r="C56" s="1">
         <v>0</v>
       </c>
-      <c r="D56" s="1"/>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
       <c r="E56" s="1">
         <v>0</v>
       </c>
@@ -1819,7 +1831,9 @@
       <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
       <c r="E57" s="1">
         <v>0</v>
       </c>
@@ -1838,7 +1852,9 @@
       <c r="C58" s="1">
         <v>0</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
@@ -1857,7 +1873,9 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
       <c r="E59" s="1">
         <v>1</v>
       </c>
@@ -1876,7 +1894,9 @@
       <c r="C60" s="1">
         <v>0</v>
       </c>
-      <c r="D60" s="1"/>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
@@ -1895,7 +1915,9 @@
       <c r="C61" s="1">
         <v>3</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
       <c r="E61" s="1">
         <v>6</v>
       </c>
@@ -1914,7 +1936,9 @@
       <c r="C62" s="1">
         <v>4</v>
       </c>
-      <c r="D62" s="1"/>
+      <c r="D62" s="1">
+        <v>4</v>
+      </c>
       <c r="E62" s="1">
         <v>6</v>
       </c>
@@ -1933,7 +1957,9 @@
       <c r="C63" s="1">
         <v>0</v>
       </c>
-      <c r="D63" s="1"/>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
       <c r="E63" s="1">
         <v>0</v>
       </c>
@@ -1952,7 +1978,9 @@
       <c r="C64" s="1">
         <v>0</v>
       </c>
-      <c r="D64" s="1"/>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
       <c r="E64" s="1">
         <v>0</v>
       </c>
@@ -1971,7 +1999,9 @@
       <c r="C65" s="1">
         <v>2</v>
       </c>
-      <c r="D65" s="1"/>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
@@ -1990,7 +2020,9 @@
       <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="1"/>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
@@ -2009,7 +2041,9 @@
       <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
       <c r="E67" s="1">
         <v>3</v>
       </c>
@@ -2028,7 +2062,9 @@
       <c r="C68" s="1">
         <v>1</v>
       </c>
-      <c r="D68" s="1"/>
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
       <c r="E68" s="1">
         <v>6</v>
       </c>
@@ -2047,7 +2083,9 @@
       <c r="C69" s="1">
         <v>5</v>
       </c>
-      <c r="D69" s="1"/>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
       <c r="E69" s="1">
         <v>6</v>
       </c>
@@ -2066,7 +2104,9 @@
       <c r="C70" s="1">
         <v>0</v>
       </c>
-      <c r="D70" s="1"/>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
       <c r="E70" s="1">
         <v>0</v>
       </c>
@@ -2085,7 +2125,9 @@
       <c r="C71" s="1">
         <v>0</v>
       </c>
-      <c r="D71" s="1"/>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
       <c r="E71" s="1">
         <v>0</v>
       </c>
@@ -2104,7 +2146,9 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="1"/>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
@@ -2123,7 +2167,9 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="1"/>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
@@ -2142,7 +2188,9 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="1"/>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
@@ -2161,7 +2209,9 @@
       <c r="C75" s="1">
         <v>3</v>
       </c>
-      <c r="D75" s="1"/>
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
       <c r="E75" s="1">
         <v>6</v>
       </c>
@@ -2180,7 +2230,9 @@
       <c r="C76" s="1">
         <v>3</v>
       </c>
-      <c r="D76" s="1"/>
+      <c r="D76" s="1">
+        <v>6</v>
+      </c>
       <c r="E76" s="1">
         <v>6</v>
       </c>
@@ -2199,7 +2251,9 @@
       <c r="C77" s="1">
         <v>0</v>
       </c>
-      <c r="D77" s="1"/>
+      <c r="D77" s="1">
+        <v>6</v>
+      </c>
       <c r="E77" s="1">
         <v>0</v>
       </c>
@@ -2218,7 +2272,9 @@
       <c r="C78" s="1">
         <v>0</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1">
+        <v>4</v>
+      </c>
       <c r="E78" s="1">
         <v>0</v>
       </c>
@@ -2237,7 +2293,9 @@
       <c r="C79" s="1">
         <v>4</v>
       </c>
-      <c r="D79" s="1"/>
+      <c r="D79" s="1">
+        <v>6</v>
+      </c>
       <c r="E79" s="1">
         <v>1</v>
       </c>
@@ -2256,7 +2314,9 @@
       <c r="C80" s="1">
         <v>4</v>
       </c>
-      <c r="D80" s="1"/>
+      <c r="D80" s="1">
+        <v>6</v>
+      </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
@@ -2275,7 +2335,9 @@
       <c r="C81" s="1">
         <v>2</v>
       </c>
-      <c r="D81" s="1"/>
+      <c r="D81" s="1">
+        <v>6</v>
+      </c>
       <c r="E81" s="1">
         <v>3</v>
       </c>
@@ -2294,7 +2356,9 @@
       <c r="C82" s="1">
         <v>3</v>
       </c>
-      <c r="D82" s="1"/>
+      <c r="D82" s="1">
+        <v>6</v>
+      </c>
       <c r="E82" s="1">
         <v>6</v>
       </c>
@@ -2310,8 +2374,12 @@
       <c r="B83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1">
+        <v>6</v>
+      </c>
       <c r="E83" s="1">
         <v>6</v>
       </c>
@@ -2327,10 +2395,18 @@
       <c r="B84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -2340,10 +2416,18 @@
       <c r="B85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -2353,10 +2437,18 @@
       <c r="B86" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="C86" s="1">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -2366,10 +2458,18 @@
       <c r="B87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -2379,10 +2479,18 @@
       <c r="B88" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1">
+        <v>3</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -2392,10 +2500,18 @@
       <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -2405,10 +2521,18 @@
       <c r="B90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="C90" s="1">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="1">
+        <v>6</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -2418,10 +2542,18 @@
       <c r="B91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -2431,10 +2563,18 @@
       <c r="B92" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -2444,10 +2584,18 @@
       <c r="B93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -2458,8 +2606,12 @@
         <v>8</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
@@ -2471,8 +2623,12 @@
         <v>9</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
@@ -2484,8 +2640,12 @@
         <v>10</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>6</v>
+      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
@@ -2497,8 +2657,12 @@
         <v>11</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>6</v>
+      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
